--- a/eduardo/Aula 6.xlsx
+++ b/eduardo/Aula 6.xlsx
@@ -168,127 +168,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -607,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,17 +891,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>1000</formula>
       <formula>1999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>2000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>" R$2.000,00"</formula>
     </cfRule>
   </conditionalFormatting>
